--- a/SoftenReporterSamples/samples/data/InputData.xlsx
+++ b/SoftenReporterSamples/samples/data/InputData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksc0524\git\SoftenReporterSamples\SoftenReporterSamples\samples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94FB6A-B2EB-4199-923E-D6F154175F39}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16835F9-3F14-4F06-B74D-A91C8550D04D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11890" activeTab="1" xr2:uid="{56B0C24B-2583-4884-84B4-45298089C18E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="1" xr2:uid="{56B0C24B-2583-4884-84B4-45298089C18E}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicInfo" sheetId="1" r:id="rId1"/>
     <sheet name="TargetParts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,7 +407,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,16 +723,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -770,7 +770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -820,19 +820,19 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -868,7 +868,10 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <f>COUNT($E$2:$E$31)</f>
+        <v>30</v>
+      </c>
       <c r="E2" s="8">
         <v>43177</v>
       </c>
@@ -882,7 +885,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -892,7 +895,10 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D31" si="0">COUNT($E$2:$E$31)</f>
+        <v>30</v>
+      </c>
       <c r="E3" s="8">
         <v>43177</v>
       </c>
@@ -906,7 +912,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -916,7 +922,10 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E4" s="8">
         <v>43177</v>
       </c>
@@ -930,7 +939,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -940,7 +949,10 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E5" s="8">
         <v>43177</v>
       </c>
@@ -954,7 +966,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -964,7 +976,10 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E6" s="8">
         <v>43177</v>
       </c>
@@ -978,7 +993,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -988,7 +1003,10 @@
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E7" s="8">
         <v>43177</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1030,10 @@
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E8" s="8">
         <v>43177</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1057,10 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E9" s="8">
         <v>43177</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1084,10 @@
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E10" s="8">
         <v>43177</v>
       </c>
@@ -1074,7 +1101,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1084,7 +1111,10 @@
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E11" s="8">
         <v>43177</v>
       </c>
@@ -1098,7 +1128,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1138,10 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E12" s="8">
         <v>43177</v>
       </c>
@@ -1122,7 +1155,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1165,10 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E13" s="8">
         <v>43177</v>
       </c>
@@ -1146,7 +1182,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1156,7 +1192,10 @@
       <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E14" s="8">
         <v>43177</v>
       </c>
@@ -1170,7 +1209,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1180,7 +1219,10 @@
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E15" s="8">
         <v>43177</v>
       </c>
@@ -1194,7 +1236,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1204,7 +1246,10 @@
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E16" s="8">
         <v>43177</v>
       </c>
@@ -1218,7 +1263,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1228,7 +1273,10 @@
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E17" s="8">
         <v>43177</v>
       </c>
@@ -1242,7 +1290,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1300,10 @@
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E18" s="8">
         <v>43177</v>
       </c>
@@ -1266,7 +1317,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -1276,7 +1327,10 @@
       <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E19" s="8">
         <v>43177</v>
       </c>
@@ -1290,7 +1344,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -1300,7 +1354,10 @@
       <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E20" s="8">
         <v>43177</v>
       </c>
@@ -1314,7 +1371,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1324,7 +1381,10 @@
       <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E21" s="8">
         <v>43177</v>
       </c>
@@ -1338,7 +1398,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1348,7 +1408,10 @@
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E22" s="8">
         <v>43177</v>
       </c>
@@ -1362,7 +1425,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1435,10 @@
       <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E23" s="8">
         <v>43177</v>
       </c>
@@ -1386,7 +1452,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1396,7 +1462,10 @@
       <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E24" s="8">
         <v>43177</v>
       </c>
@@ -1410,7 +1479,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -1420,7 +1489,10 @@
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E25" s="8">
         <v>43177</v>
       </c>
@@ -1434,7 +1506,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -1444,7 +1516,10 @@
       <c r="C26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E26" s="8">
         <v>43177</v>
       </c>
@@ -1458,7 +1533,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -1468,7 +1543,10 @@
       <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E27" s="8">
         <v>43177</v>
       </c>
@@ -1482,7 +1560,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>61</v>
       </c>
@@ -1492,7 +1570,10 @@
       <c r="C28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E28" s="8">
         <v>43177</v>
       </c>
@@ -1506,7 +1587,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
@@ -1516,7 +1597,10 @@
       <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E29" s="8">
         <v>43177</v>
       </c>
@@ -1530,7 +1614,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>65</v>
       </c>
@@ -1540,7 +1624,10 @@
       <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E30" s="8">
         <v>43177</v>
       </c>
@@ -1554,7 +1641,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -1564,7 +1651,10 @@
       <c r="C31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E31" s="8">
         <v>43177</v>
       </c>
